--- a/station/deploy/顺德治超现场部件IP_0911.xlsx
+++ b/station/deploy/顺德治超现场部件IP_0911.xlsx
@@ -1332,7 +1332,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1344,27 +1344,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1384,8 +1369,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,17 +1393,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1425,14 +1424,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,9 +1438,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1462,31 +1469,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1525,7 +1518,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,25 +1620,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,19 +1662,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,115 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,6 +1788,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1823,88 +1855,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1913,100 +1909,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2373,7 +2366,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.4" customHeight="1" outlineLevelCol="6"/>
@@ -2835,7 +2828,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="57.6" spans="1:2">
+    <row r="36" ht="43.2" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
@@ -5640,7 +5633,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="86.4" spans="1:2">
+    <row r="36" ht="43.2" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
